--- a/data/trans_orig/P16A18-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P16A18-Dificultad-trans_orig.xlsx
@@ -540,7 +540,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres menores de 56 años que ha consumido anticonceptivos en las dos últimas semanas en 2007 (tasa de respuesta: 99,96%)</t>
+          <t>Mujeres menores de 55 años según si han consumido anticonceptivos en las dos últimas semanas en 2007 (tasa de respuesta: 99,96%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1113,7 +1113,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres menores de 56 años que ha consumido anticonceptivos en las dos últimas semanas en 2012 (tasa de respuesta: 98,99%)</t>
+          <t>Mujeres menores de 55 años según si han consumido anticonceptivos en las dos últimas semanas en 2012 (tasa de respuesta: 98,99%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1686,7 +1686,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres menores de 56 años que ha consumido anticonceptivos en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Mujeres menores de 55 años según si han consumido anticonceptivos en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2259,7 +2259,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Mujeres menores de 56 años que ha consumido anticonceptivos en las dos últimas semanas en 2023 (tasa de respuesta: 99,82%)</t>
+          <t>Mujeres menores de 55 años según si han consumido anticonceptivos en las dos últimas semanas en 2023 (tasa de respuesta: 99,82%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A18-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P16A18-Dificultad-trans_orig.xlsx
@@ -624,19 +624,19 @@
         <v>43468</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>31898</v>
+        <v>31341</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>58396</v>
+        <v>57040</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07918910730082863</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05811079772300923</v>
+        <v>0.05709623855077748</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1063839007697874</v>
+        <v>0.1039136012384184</v>
       </c>
     </row>
     <row r="5">
@@ -653,19 +653,19 @@
         <v>505451</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>490523</v>
+        <v>491879</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>517021</v>
+        <v>517578</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9208108926991714</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8936160992302126</v>
+        <v>0.8960863987615816</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9418892022769908</v>
+        <v>0.9429037614492225</v>
       </c>
     </row>
     <row r="6">
@@ -715,19 +715,19 @@
         <v>67033</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>52220</v>
+        <v>52177</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>83852</v>
+        <v>83517</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08791406889999516</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06848727055335345</v>
+        <v>0.06843047705258988</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1099733248054311</v>
+        <v>0.109533338102903</v>
       </c>
     </row>
     <row r="8">
@@ -744,19 +744,19 @@
         <v>695445</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>678626</v>
+        <v>678961</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>710258</v>
+        <v>710301</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9120859311000048</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8900266751945688</v>
+        <v>0.890466661897097</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9315127294466464</v>
+        <v>0.9315695229474101</v>
       </c>
     </row>
     <row r="9">
@@ -806,19 +806,19 @@
         <v>64579</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>51019</v>
+        <v>49588</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>80667</v>
+        <v>80818</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08846669634738429</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06989073553696191</v>
+        <v>0.06793026235799673</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.110506062248478</v>
+        <v>0.1107130401649285</v>
       </c>
     </row>
     <row r="11">
@@ -835,19 +835,19 @@
         <v>665398</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>649310</v>
+        <v>649159</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>678958</v>
+        <v>680389</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9115333036526158</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8894939377515205</v>
+        <v>0.8892869598350712</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9301092644630377</v>
+        <v>0.9320697376420033</v>
       </c>
     </row>
     <row r="12">
@@ -897,19 +897,19 @@
         <v>31551</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>22828</v>
+        <v>22035</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>44262</v>
+        <v>43779</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1147049588952882</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08299215012457398</v>
+        <v>0.08010790957243326</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1609132843958842</v>
+        <v>0.1591602825659993</v>
       </c>
     </row>
     <row r="14">
@@ -926,19 +926,19 @@
         <v>243514</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>230803</v>
+        <v>231286</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>252237</v>
+        <v>253030</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8852950411047118</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8390867156041157</v>
+        <v>0.8408397174340005</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9170078498754259</v>
+        <v>0.9198920904275667</v>
       </c>
     </row>
     <row r="15">
@@ -988,19 +988,19 @@
         <v>206631</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>180806</v>
+        <v>182128</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>236483</v>
+        <v>235917</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08920196921886363</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0780534433697173</v>
+        <v>0.07862408992394987</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1020890905066094</v>
+        <v>0.1018446354432491</v>
       </c>
     </row>
     <row r="17">
@@ -1017,19 +1017,19 @@
         <v>2109808</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2079956</v>
+        <v>2080522</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2135633</v>
+        <v>2134311</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9107980307811364</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8979109094933906</v>
+        <v>0.8981553645567509</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9219465566302828</v>
+        <v>0.9213759100760501</v>
       </c>
     </row>
     <row r="18">
@@ -1197,19 +1197,19 @@
         <v>75272</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>59335</v>
+        <v>58352</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>95729</v>
+        <v>93925</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09448809611772707</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07448210304313614</v>
+        <v>0.07324780786058793</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1201670826990257</v>
+        <v>0.1179024067922486</v>
       </c>
     </row>
     <row r="5">
@@ -1226,19 +1226,19 @@
         <v>721360</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>700903</v>
+        <v>702707</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>737297</v>
+        <v>738280</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.905511903882273</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8798329173009743</v>
+        <v>0.8820975932077514</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.925517896956864</v>
+        <v>0.9267521921394125</v>
       </c>
     </row>
     <row r="6">
@@ -1288,19 +1288,19 @@
         <v>77698</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>62224</v>
+        <v>63509</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>95173</v>
+        <v>95288</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.105421379148923</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08442646516002476</v>
+        <v>0.08616999705396709</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1291318342335422</v>
+        <v>0.1292879756363534</v>
       </c>
     </row>
     <row r="8">
@@ -1317,19 +1317,19 @@
         <v>659323</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>641848</v>
+        <v>641733</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>674797</v>
+        <v>673512</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.894578620851077</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8708681657664582</v>
+        <v>0.8707120243636467</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9155735348399754</v>
+        <v>0.9138300029460329</v>
       </c>
     </row>
     <row r="9">
@@ -1379,19 +1379,19 @@
         <v>61083</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>45808</v>
+        <v>47337</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>77334</v>
+        <v>77256</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1060990307180489</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07956690700613472</v>
+        <v>0.08222299819877474</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1343256224342284</v>
+        <v>0.1341897473858784</v>
       </c>
     </row>
     <row r="11">
@@ -1408,19 +1408,19 @@
         <v>514636</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>498385</v>
+        <v>498463</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>529911</v>
+        <v>528382</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8939009692819511</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8656743775657714</v>
+        <v>0.8658102526141218</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9204330929938652</v>
+        <v>0.9177770018012253</v>
       </c>
     </row>
     <row r="12">
@@ -1470,19 +1470,19 @@
         <v>18178</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10922</v>
+        <v>11165</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>28832</v>
+        <v>28034</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05854042483750387</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03517196804549623</v>
+        <v>0.03595380145485884</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09284836301778399</v>
+        <v>0.0902797383154673</v>
       </c>
     </row>
     <row r="14">
@@ -1499,19 +1499,19 @@
         <v>292351</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>281697</v>
+        <v>282495</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>299607</v>
+        <v>299364</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9414595751624961</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.907151636982216</v>
+        <v>0.9097202616845328</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9648280319545037</v>
+        <v>0.9640461985451412</v>
       </c>
     </row>
     <row r="15">
@@ -1561,19 +1561,19 @@
         <v>232232</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>203835</v>
+        <v>199636</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>264489</v>
+        <v>259154</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09596744881427809</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08423279678061137</v>
+        <v>0.08249743260440083</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1092973090281679</v>
+        <v>0.1070928057575735</v>
       </c>
     </row>
     <row r="17">
@@ -1590,19 +1590,19 @@
         <v>2187668</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2155411</v>
+        <v>2160746</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2216065</v>
+        <v>2220264</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9040325511857219</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8907026909718322</v>
+        <v>0.8929071942424264</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9157672032193886</v>
+        <v>0.917502567395599</v>
       </c>
     </row>
     <row r="18">
@@ -1770,19 +1770,19 @@
         <v>48719</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>35975</v>
+        <v>37748</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>63678</v>
+        <v>64210</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05871782520939139</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0433588774712064</v>
+        <v>0.04549489114761823</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07674752013834232</v>
+        <v>0.07738758078767448</v>
       </c>
     </row>
     <row r="5">
@@ -1799,19 +1799,19 @@
         <v>780995</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>766036</v>
+        <v>765504</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>793739</v>
+        <v>791966</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9412821747906086</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9232524798616571</v>
+        <v>0.922612419212325</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9566411225287936</v>
+        <v>0.9545051088523817</v>
       </c>
     </row>
     <row r="6">
@@ -1861,19 +1861,19 @@
         <v>46001</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>35258</v>
+        <v>35137</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>61962</v>
+        <v>60407</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06899687722202234</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0528837750032899</v>
+        <v>0.05270147394460697</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09293618888720166</v>
+        <v>0.09060393261613614</v>
       </c>
     </row>
     <row r="8">
@@ -1890,19 +1890,19 @@
         <v>620710</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>604749</v>
+        <v>606304</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>631453</v>
+        <v>631574</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9310031227779777</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9070638111127983</v>
+        <v>0.909396067383864</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9471162249967101</v>
+        <v>0.9472985260553932</v>
       </c>
     </row>
     <row r="9">
@@ -1952,19 +1952,19 @@
         <v>38816</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>28595</v>
+        <v>28394</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>51239</v>
+        <v>52715</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07821558158351839</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05761998787361419</v>
+        <v>0.05721541833222424</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1032500049925198</v>
+        <v>0.1062235046575648</v>
       </c>
     </row>
     <row r="11">
@@ -1981,19 +1981,19 @@
         <v>457450</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>445027</v>
+        <v>443551</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>467671</v>
+        <v>467872</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9217844184164816</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8967499950074798</v>
+        <v>0.893776495342435</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9423800121263858</v>
+        <v>0.9427845816677753</v>
       </c>
     </row>
     <row r="12">
@@ -2043,19 +2043,19 @@
         <v>13473</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6880</v>
+        <v>8261</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>20704</v>
+        <v>23097</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04076259258720948</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02081421722154943</v>
+        <v>0.02499137541235216</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06263865080795011</v>
+        <v>0.06987737454225325</v>
       </c>
     </row>
     <row r="14">
@@ -2072,19 +2072,19 @@
         <v>317062</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>309831</v>
+        <v>307438</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>323655</v>
+        <v>322274</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9592374074127905</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9373613491920499</v>
+        <v>0.930122625457747</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9791857827784506</v>
+        <v>0.975008624587649</v>
       </c>
     </row>
     <row r="15">
@@ -2134,19 +2134,19 @@
         <v>147009</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>125389</v>
+        <v>126195</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>171475</v>
+        <v>170320</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06327802927618109</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05397188985050572</v>
+        <v>0.05431901700033314</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07380893009102951</v>
+        <v>0.07331179744287145</v>
       </c>
     </row>
     <row r="17">
@@ -2163,19 +2163,19 @@
         <v>2176217</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2151751</v>
+        <v>2152906</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2197837</v>
+        <v>2197031</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9367219707238189</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9261910699089704</v>
+        <v>0.9266882025571284</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9460281101494943</v>
+        <v>0.9456809829996667</v>
       </c>
     </row>
     <row r="18">
@@ -2343,19 +2343,19 @@
         <v>10951</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5419</v>
+        <v>5599</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20892</v>
+        <v>20738</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02986035649620541</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01477681490131018</v>
+        <v>0.01526580510923587</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05696388875767994</v>
+        <v>0.05654520127392103</v>
       </c>
     </row>
     <row r="5">
@@ -2372,19 +2372,19 @@
         <v>355804</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>345863</v>
+        <v>346017</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>361336</v>
+        <v>361156</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9701396435037946</v>
+        <v>0.9701396435037947</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.94303611124232</v>
+        <v>0.9434547987260782</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9852231850986898</v>
+        <v>0.9847341948907637</v>
       </c>
     </row>
     <row r="6">
@@ -2434,19 +2434,19 @@
         <v>14827</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9403</v>
+        <v>9008</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>23807</v>
+        <v>23271</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02291006996711098</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01452813895139814</v>
+        <v>0.01391874549008267</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03678391662467305</v>
+        <v>0.03595679562430185</v>
       </c>
     </row>
     <row r="8">
@@ -2463,19 +2463,19 @@
         <v>632372</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>623392</v>
+        <v>623928</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>637796</v>
+        <v>638191</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.977089930032889</v>
+        <v>0.9770899300328891</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9632160833753268</v>
+        <v>0.964043204375698</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9854718610486017</v>
+        <v>0.9860812545099172</v>
       </c>
     </row>
     <row r="9">
@@ -2525,19 +2525,19 @@
         <v>21277</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12494</v>
+        <v>12911</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>33862</v>
+        <v>31769</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.03161808470071815</v>
+        <v>0.03161808470071816</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01856617198978061</v>
+        <v>0.01918607374866328</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05032027043476538</v>
+        <v>0.04720963247809042</v>
       </c>
     </row>
     <row r="11">
@@ -2554,19 +2554,19 @@
         <v>651654</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>639069</v>
+        <v>641162</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>660437</v>
+        <v>660020</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.968381915299282</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9496797295652346</v>
+        <v>0.9527903675219097</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9814338280102195</v>
+        <v>0.9808139262513368</v>
       </c>
     </row>
     <row r="12">
@@ -2616,19 +2616,19 @@
         <v>18626</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10746</v>
+        <v>10810</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>28295</v>
+        <v>29811</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03251165202318453</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0187567460554072</v>
+        <v>0.01886815756462914</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04938858397364305</v>
+        <v>0.0520345657703772</v>
       </c>
     </row>
     <row r="14">
@@ -2645,19 +2645,19 @@
         <v>554279</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>544610</v>
+        <v>543094</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>562159</v>
+        <v>562095</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9674883479768155</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9506114160263571</v>
+        <v>0.9479654342296233</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9812432539445927</v>
+        <v>0.9811318424353709</v>
       </c>
     </row>
     <row r="15">
@@ -2707,19 +2707,19 @@
         <v>65682</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>50405</v>
+        <v>50033</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>82857</v>
+        <v>82978</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02906539443886231</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02230525608276451</v>
+        <v>0.02214060084717005</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03666557532862599</v>
+        <v>0.03671944732795891</v>
       </c>
     </row>
     <row r="17">
@@ -2736,19 +2736,19 @@
         <v>2194108</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2176933</v>
+        <v>2176812</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2209385</v>
+        <v>2209757</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9709346055611375</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.963334424671374</v>
+        <v>0.9632805526720409</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9776947439172351</v>
+        <v>0.9778593991528287</v>
       </c>
     </row>
     <row r="18">
